--- a/MyScrumBudget_0.1.1.xlsx
+++ b/MyScrumBudget_0.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\myscrumbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98DDEC-3C8D-4BCB-8BB2-D1D6DDC6E471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3101A53F-283B-4F20-9D4D-7051053024C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{7EFC9F54-FD64-4CB3-8707-A4DEAF994445}"/>
   </bookViews>
@@ -2396,10 +2396,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Instructions</a:t>
@@ -2822,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="40">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="31"/>
@@ -2959,151 +2956,151 @@
     <row r="5" spans="1:49" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <f>F2</f>
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="F5" t="str">
         <f>TEXT(EDATE(E5,1),"MM/DD/YYYY")</f>
-        <v>08/01/2019</v>
+        <v>08/01/2020</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:AO5" si="0">TEXT(EDATE(F5,1),"MM/DD/YYYY")</f>
-        <v>09/01/2019</v>
+        <v>09/01/2020</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>10/01/2019</v>
+        <v>10/01/2020</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>11/01/2019</v>
+        <v>11/01/2020</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>12/01/2019</v>
+        <v>12/01/2020</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>01/01/2020</v>
+        <v>01/01/2021</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>02/01/2020</v>
+        <v>02/01/2021</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>03/01/2020</v>
+        <v>03/01/2021</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>04/01/2020</v>
+        <v>04/01/2021</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
-        <v>05/01/2020</v>
+        <v>05/01/2021</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>06/01/2020</v>
+        <v>06/01/2021</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>07/01/2020</v>
+        <v>07/01/2021</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="0"/>
-        <v>08/01/2020</v>
+        <v>08/01/2021</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
-        <v>09/01/2020</v>
+        <v>09/01/2021</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="0"/>
-        <v>10/01/2020</v>
+        <v>10/01/2021</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="0"/>
-        <v>11/01/2020</v>
+        <v>11/01/2021</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="0"/>
-        <v>12/01/2020</v>
+        <v>12/01/2021</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="0"/>
-        <v>01/01/2021</v>
+        <v>01/01/2022</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="0"/>
-        <v>02/01/2021</v>
+        <v>02/01/2022</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="0"/>
-        <v>03/01/2021</v>
+        <v>03/01/2022</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="0"/>
-        <v>04/01/2021</v>
+        <v>04/01/2022</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>05/01/2021</v>
+        <v>05/01/2022</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="0"/>
-        <v>06/01/2021</v>
+        <v>06/01/2022</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="0"/>
-        <v>07/01/2021</v>
+        <v>07/01/2022</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="0"/>
-        <v>08/01/2021</v>
+        <v>08/01/2022</v>
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="0"/>
-        <v>09/01/2021</v>
+        <v>09/01/2022</v>
       </c>
       <c r="AF5" t="str">
         <f t="shared" si="0"/>
-        <v>10/01/2021</v>
+        <v>10/01/2022</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="0"/>
-        <v>11/01/2021</v>
+        <v>11/01/2022</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="0"/>
-        <v>12/01/2021</v>
+        <v>12/01/2022</v>
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="0"/>
-        <v>01/01/2022</v>
+        <v>01/01/2023</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="0"/>
-        <v>02/01/2022</v>
+        <v>02/01/2023</v>
       </c>
       <c r="AK5" t="str">
         <f t="shared" si="0"/>
-        <v>03/01/2022</v>
+        <v>03/01/2023</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" si="0"/>
-        <v>04/01/2022</v>
+        <v>04/01/2023</v>
       </c>
       <c r="AM5" t="str">
         <f t="shared" si="0"/>
-        <v>05/01/2022</v>
+        <v>05/01/2023</v>
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="0"/>
-        <v>06/01/2022</v>
+        <v>06/01/2023</v>
       </c>
       <c r="AO5" t="str">
         <f t="shared" si="0"/>
-        <v>07/01/2022</v>
+        <v>07/01/2023</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -3121,151 +3118,151 @@
       </c>
       <c r="E6" s="8" t="str">
         <f>_xlfn.CONCAT(CHOOSE(MONTH(E5),"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"), " '",TEXT(E5,"YY"))</f>
-        <v>Jul '19</v>
+        <v>Jul '20</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>_xlfn.CONCAT(CHOOSE(MONTH(F5),"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"), " '",TEXT(F5,"YY"))</f>
-        <v>Aug '19</v>
+        <v>Aug '20</v>
       </c>
       <c r="G6" s="8" t="str">
         <f t="shared" ref="G6:AO6" si="1">_xlfn.CONCAT(CHOOSE(MONTH(G5),"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"), " '",TEXT(G5,"YY"))</f>
-        <v>Sep '19</v>
+        <v>Sep '20</v>
       </c>
       <c r="H6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Oct '19</v>
+        <v>Oct '20</v>
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Nov '19</v>
+        <v>Nov '20</v>
       </c>
       <c r="J6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Dec '19</v>
+        <v>Dec '20</v>
       </c>
       <c r="K6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jan '20</v>
+        <v>Jan '21</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Feb '20</v>
+        <v>Feb '21</v>
       </c>
       <c r="M6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Mar '20</v>
+        <v>Mar '21</v>
       </c>
       <c r="N6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Apr '20</v>
+        <v>Apr '21</v>
       </c>
       <c r="O6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>May '20</v>
+        <v>May '21</v>
       </c>
       <c r="P6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jun '20</v>
+        <v>Jun '21</v>
       </c>
       <c r="Q6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jul '20</v>
+        <v>Jul '21</v>
       </c>
       <c r="R6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Aug '20</v>
+        <v>Aug '21</v>
       </c>
       <c r="S6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Sep '20</v>
+        <v>Sep '21</v>
       </c>
       <c r="T6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Oct '20</v>
+        <v>Oct '21</v>
       </c>
       <c r="U6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Nov '20</v>
+        <v>Nov '21</v>
       </c>
       <c r="V6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Dec '20</v>
+        <v>Dec '21</v>
       </c>
       <c r="W6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jan '21</v>
+        <v>Jan '22</v>
       </c>
       <c r="X6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Feb '21</v>
+        <v>Feb '22</v>
       </c>
       <c r="Y6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Mar '21</v>
+        <v>Mar '22</v>
       </c>
       <c r="Z6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Apr '21</v>
+        <v>Apr '22</v>
       </c>
       <c r="AA6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>May '21</v>
+        <v>May '22</v>
       </c>
       <c r="AB6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jun '21</v>
+        <v>Jun '22</v>
       </c>
       <c r="AC6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jul '21</v>
+        <v>Jul '22</v>
       </c>
       <c r="AD6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Aug '21</v>
+        <v>Aug '22</v>
       </c>
       <c r="AE6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Sep '21</v>
+        <v>Sep '22</v>
       </c>
       <c r="AF6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Oct '21</v>
+        <v>Oct '22</v>
       </c>
       <c r="AG6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Nov '21</v>
+        <v>Nov '22</v>
       </c>
       <c r="AH6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Dec '21</v>
+        <v>Dec '22</v>
       </c>
       <c r="AI6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jan '22</v>
+        <v>Jan '23</v>
       </c>
       <c r="AJ6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Feb '22</v>
+        <v>Feb '23</v>
       </c>
       <c r="AK6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Mar '22</v>
+        <v>Mar '23</v>
       </c>
       <c r="AL6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Apr '22</v>
+        <v>Apr '23</v>
       </c>
       <c r="AM6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>May '22</v>
+        <v>May '23</v>
       </c>
       <c r="AN6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jun '22</v>
+        <v>Jun '23</v>
       </c>
       <c r="AO6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Jul '22</v>
+        <v>Jul '23</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
